--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7894570000000001</v>
+        <v>0.6537256666666666</v>
       </c>
       <c r="N2">
-        <v>2.368371</v>
+        <v>1.961177</v>
       </c>
       <c r="O2">
-        <v>0.09838606084581891</v>
+        <v>0.08287237534104652</v>
       </c>
       <c r="P2">
-        <v>0.09838606084581894</v>
+        <v>0.08287237534104651</v>
       </c>
       <c r="Q2">
-        <v>0.5898183243830001</v>
+        <v>0.2983630091693333</v>
       </c>
       <c r="R2">
-        <v>5.308364919447</v>
+        <v>2.685267082524</v>
       </c>
       <c r="S2">
-        <v>0.003046971887586011</v>
+        <v>0.001586973474465931</v>
       </c>
       <c r="T2">
-        <v>0.003046971887586012</v>
+        <v>0.001586973474465931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.877254</v>
       </c>
       <c r="O3">
-        <v>0.7011091332204036</v>
+        <v>0.7131728182689164</v>
       </c>
       <c r="P3">
-        <v>0.7011091332204038</v>
+        <v>0.7131728182689163</v>
       </c>
       <c r="Q3">
-        <v>4.203105710408667</v>
+        <v>2.567615411538667</v>
       </c>
       <c r="R3">
-        <v>37.827951393678</v>
+        <v>23.108538703848</v>
       </c>
       <c r="S3">
-        <v>0.02171303333711169</v>
+        <v>0.01365697967079159</v>
       </c>
       <c r="T3">
-        <v>0.02171303333711169</v>
+        <v>0.01365697967079158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.826596</v>
       </c>
       <c r="O4">
-        <v>0.2005048059337773</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="P4">
-        <v>0.2005048059337774</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="Q4">
-        <v>1.202013858974667</v>
+        <v>0.7342925735946667</v>
       </c>
       <c r="R4">
-        <v>10.818124730772</v>
+        <v>6.608633162352</v>
       </c>
       <c r="S4">
-        <v>0.006209543321014777</v>
+        <v>0.003905654524789636</v>
       </c>
       <c r="T4">
-        <v>0.006209543321014779</v>
+        <v>0.003905654524789636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7894570000000001</v>
+        <v>0.6537256666666666</v>
       </c>
       <c r="N5">
-        <v>2.368371</v>
+        <v>1.961177</v>
       </c>
       <c r="O5">
-        <v>0.09838606084581891</v>
+        <v>0.08287237534104652</v>
       </c>
       <c r="P5">
-        <v>0.09838606084581894</v>
+        <v>0.08287237534104651</v>
       </c>
       <c r="Q5">
-        <v>15.58876976089634</v>
+        <v>12.90859274723656</v>
       </c>
       <c r="R5">
-        <v>140.298927848067</v>
+        <v>116.177334725129</v>
       </c>
       <c r="S5">
-        <v>0.08053080289289</v>
+        <v>0.06865996672838653</v>
       </c>
       <c r="T5">
-        <v>0.08053080289289002</v>
+        <v>0.06865996672838653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.877254</v>
       </c>
       <c r="O6">
-        <v>0.7011091332204036</v>
+        <v>0.7131728182689164</v>
       </c>
       <c r="P6">
-        <v>0.7011091332204038</v>
+        <v>0.7131728182689163</v>
       </c>
       <c r="Q6">
         <v>111.0871678475065</v>
@@ -818,10 +818,10 @@
         <v>999.7845106275581</v>
       </c>
       <c r="S6">
-        <v>0.5738707386837785</v>
+        <v>0.5908654334139798</v>
       </c>
       <c r="T6">
-        <v>0.5738707386837787</v>
+        <v>0.5908654334139797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.826596</v>
       </c>
       <c r="O7">
-        <v>0.2005048059337773</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="P7">
-        <v>0.2005048059337774</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="Q7">
         <v>31.76896431043245</v>
@@ -880,10 +880,10 @@
         <v>285.920678793892</v>
       </c>
       <c r="S7">
-        <v>0.1641168765871611</v>
+        <v>0.168977058557878</v>
       </c>
       <c r="T7">
-        <v>0.1641168765871611</v>
+        <v>0.168977058557878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7894570000000001</v>
+        <v>0.6537256666666666</v>
       </c>
       <c r="N8">
-        <v>2.368371</v>
+        <v>1.961177</v>
       </c>
       <c r="O8">
-        <v>0.09838606084581891</v>
+        <v>0.08287237534104652</v>
       </c>
       <c r="P8">
-        <v>0.09838606084581894</v>
+        <v>0.08287237534104651</v>
       </c>
       <c r="Q8">
-        <v>2.866517577543001</v>
+        <v>2.373677241941</v>
       </c>
       <c r="R8">
-        <v>25.798658197887</v>
+        <v>21.363095177469</v>
       </c>
       <c r="S8">
-        <v>0.0148082860653429</v>
+        <v>0.01262543513819406</v>
       </c>
       <c r="T8">
-        <v>0.0148082860653429</v>
+        <v>0.01262543513819406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>16.877254</v>
       </c>
       <c r="O9">
-        <v>0.7011091332204036</v>
+        <v>0.7131728182689164</v>
       </c>
       <c r="P9">
-        <v>0.7011091332204038</v>
+        <v>0.7131728182689163</v>
       </c>
       <c r="Q9">
         <v>20.427097465582</v>
@@ -1004,10 +1004,10 @@
         <v>183.843877190238</v>
       </c>
       <c r="S9">
-        <v>0.1055253611995133</v>
+        <v>0.1086504051841451</v>
       </c>
       <c r="T9">
-        <v>0.1055253611995134</v>
+        <v>0.1086504051841451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.826596</v>
       </c>
       <c r="O10">
-        <v>0.2005048059337773</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="P10">
-        <v>0.2005048059337774</v>
+        <v>0.2039548063900371</v>
       </c>
       <c r="Q10">
         <v>5.841788416468001</v>
@@ -1066,10 +1066,10 @@
         <v>52.57609574821201</v>
       </c>
       <c r="S10">
-        <v>0.03017838602560146</v>
+        <v>0.03107209330736945</v>
       </c>
       <c r="T10">
-        <v>0.03017838602560147</v>
+        <v>0.03107209330736944</v>
       </c>
     </row>
   </sheetData>
